--- a/results/Auto/genero-m1_es_adjetivonegativo-m2.xlsx
+++ b/results/Auto/genero-m1_es_adjetivonegativo-m2.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01207141298800707</v>
+        <v>4.969269795651599e-08</v>
       </c>
       <c r="E2" t="n">
         <v>0.003481134073808789</v>
@@ -505,7 +505,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.006842889823019505</v>
+        <v>2.210389649093258e-09</v>
       </c>
       <c r="E3" t="n">
         <v>0.01110579818487167</v>
@@ -544,7 +544,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -566,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04671101272106171</v>
+        <v>1.836417462541817e-09</v>
       </c>
       <c r="E4" t="n">
         <v>0.0008145284373313189</v>
@@ -583,7 +583,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -605,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001155976438894868</v>
+        <v>9.071802864468737e-09</v>
       </c>
       <c r="E5" t="n">
         <v>0.000728872197214514</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -644,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002427413361147046</v>
+        <v>1.293085727382959e-08</v>
       </c>
       <c r="E6" t="n">
         <v>0.003430266166105866</v>
@@ -661,7 +661,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -683,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01732319965958595</v>
+        <v>4.735489866902753e-08</v>
       </c>
       <c r="E7" t="n">
         <v>0.007748320698738098</v>
@@ -700,7 +700,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0004826096992474049</v>
+        <v>9.328929295726596e-11</v>
       </c>
       <c r="E8" t="n">
         <v>9.478343417868018e-05</v>
@@ -739,7 +739,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -761,7 +761,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001580858486704528</v>
+        <v>1.607833199912534e-09</v>
       </c>
       <c r="E9" t="n">
         <v>2.046187728410587e-05</v>
@@ -778,7 +778,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -800,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0006120820180512965</v>
+        <v>6.328323975957062e-10</v>
       </c>
       <c r="E10" t="n">
         <v>0.0001047958430717699</v>
@@ -817,7 +817,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -839,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001699094078503549</v>
+        <v>2.146159250315804e-09</v>
       </c>
       <c r="E11" t="n">
         <v>0.0002209896920248866</v>
@@ -856,7 +856,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -878,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001158462720923126</v>
+        <v>4.074759196726063e-09</v>
       </c>
       <c r="E12" t="n">
         <v>2.358782921874081e-06</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -917,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001033547800034285</v>
+        <v>1.995775988916648e-08</v>
       </c>
       <c r="E13" t="n">
         <v>0.0001394706632709131</v>
@@ -934,7 +934,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -956,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06286808103322983</v>
+        <v>2.345892369248759e-10</v>
       </c>
       <c r="E14" t="n">
         <v>1.4702861335536e-05</v>
@@ -973,7 +973,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -995,7 +995,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.005206864327192307</v>
+        <v>3.923199098920804e-09</v>
       </c>
       <c r="E15" t="n">
         <v>0.0001577818911755458</v>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1034,7 +1034,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0004177712835371494</v>
+        <v>4.61101296034272e-11</v>
       </c>
       <c r="E16" t="n">
         <v>9.331671026302502e-05</v>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1073,7 +1073,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>0.000942896178457886</v>
+        <v>2.614548577639653e-09</v>
       </c>
       <c r="E17" t="n">
         <v>0.0003362279385328293</v>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1112,7 +1112,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01054289657622576</v>
+        <v>3.314022478662082e-08</v>
       </c>
       <c r="E18" t="n">
         <v>0.00275636650621891</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1151,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00665566697716713</v>
+        <v>1.411425198938332e-08</v>
       </c>
       <c r="E19" t="n">
         <v>0.0001788387744454667</v>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1190,7 +1190,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0007171568577177823</v>
+        <v>1.958692763537329e-09</v>
       </c>
       <c r="E20" t="n">
         <v>8.71967017701536e-07</v>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1229,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06586915999650955</v>
+        <v>1.86421086900701e-10</v>
       </c>
       <c r="E21" t="n">
         <v>0.01832700148224831</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1268,7 +1268,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>0.002336763078346848</v>
+        <v>7.354313424912107e-08</v>
       </c>
       <c r="E22" t="n">
         <v>0.0002872757613658905</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1307,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>0.003593598259612918</v>
+        <v>2.653124608897883e-09</v>
       </c>
       <c r="E23" t="n">
         <v>9.315818169852719e-05</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1346,7 +1346,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>0.003057816997170448</v>
+        <v>1.208023236998201e-09</v>
       </c>
       <c r="E24" t="n">
         <v>0.001319856033660471</v>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1385,7 +1385,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002464586868882179</v>
+        <v>1.864634846526769e-08</v>
       </c>
       <c r="E25" t="n">
         <v>0.0004214385407976806</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1424,7 +1424,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0005982564762234688</v>
+        <v>1.757170586813572e-08</v>
       </c>
       <c r="E26" t="n">
         <v>7.168620504671708e-05</v>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1463,7 +1463,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>0.006869806442409754</v>
+        <v>1.412577343984367e-08</v>
       </c>
       <c r="E27" t="n">
         <v>0.001239740289747715</v>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1502,7 +1502,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="n">
-        <v>0.006395666860044003</v>
+        <v>2.255058362266027e-08</v>
       </c>
       <c r="E28" t="n">
         <v>0.001726243644952774</v>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1541,7 +1541,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0501125156879425</v>
+        <v>1.789551973274683e-08</v>
       </c>
       <c r="E29" t="n">
         <v>0.003559036878868937</v>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1580,7 +1580,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="n">
-        <v>0.007656863424926996</v>
+        <v>1.558666617995641e-08</v>
       </c>
       <c r="E30" t="n">
         <v>0.0002451673499308527</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1619,7 +1619,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>0.00277936365455389</v>
+        <v>2.624909001269771e-08</v>
       </c>
       <c r="E31" t="n">
         <v>0.001248868997208774</v>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1658,7 +1658,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0134807825088501</v>
+        <v>8.881554380835155e-10</v>
       </c>
       <c r="E32" t="n">
         <v>0.004502112977206707</v>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>32</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0002509122423361987</v>
+        <v>1.685694465958232e-11</v>
       </c>
       <c r="E33" t="n">
         <v>1.308125592913711e-05</v>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1736,7 +1736,7 @@
         <v>33</v>
       </c>
       <c r="D34" t="n">
-        <v>0.009006594307720661</v>
+        <v>1.084869527545607e-09</v>
       </c>
       <c r="E34" t="n">
         <v>5.763535591540858e-05</v>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1775,7 +1775,7 @@
         <v>34</v>
       </c>
       <c r="D35" t="n">
-        <v>0.008527434431016445</v>
+        <v>2.057803172306194e-08</v>
       </c>
       <c r="E35" t="n">
         <v>0.005106006283313036</v>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1814,7 +1814,7 @@
         <v>35</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01266281958669424</v>
+        <v>8.331718648335595e-11</v>
       </c>
       <c r="E36" t="n">
         <v>0.002437334973365068</v>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1853,7 +1853,7 @@
         <v>36</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001164264744147658</v>
+        <v>1.206114652596568e-09</v>
       </c>
       <c r="E37" t="n">
         <v>4.725249164039269e-05</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1892,7 +1892,7 @@
         <v>37</v>
       </c>
       <c r="D38" t="n">
-        <v>0.00302254012785852</v>
+        <v>3.166882867056131e-10</v>
       </c>
       <c r="E38" t="n">
         <v>0.002149263396859169</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1931,7 +1931,7 @@
         <v>38</v>
       </c>
       <c r="D39" t="n">
-        <v>0.003500840859487653</v>
+        <v>1.405795302389379e-08</v>
       </c>
       <c r="E39" t="n">
         <v>2.700257391552441e-05</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1970,7 +1970,7 @@
         <v>39</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01161795761436224</v>
+        <v>1.345529576646243e-09</v>
       </c>
       <c r="E40" t="n">
         <v>0.003750082803890109</v>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2009,7 +2009,7 @@
         <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>0.001944639370776713</v>
+        <v>4.353448801452942e-08</v>
       </c>
       <c r="E41" t="n">
         <v>6.826030585216358e-05</v>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2048,7 +2048,7 @@
         <v>41</v>
       </c>
       <c r="D42" t="n">
-        <v>0.004861469846218824</v>
+        <v>6.046025902151086e-10</v>
       </c>
       <c r="E42" t="n">
         <v>7.272594189089432e-07</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2087,7 +2087,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06276358664035797</v>
+        <v>1.296584173360316e-09</v>
       </c>
       <c r="E43" t="n">
         <v>0.001242598053067923</v>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2126,7 +2126,7 @@
         <v>43</v>
       </c>
       <c r="D44" t="n">
-        <v>0.008412057533860207</v>
+        <v>8.083096414424062e-10</v>
       </c>
       <c r="E44" t="n">
         <v>0.0005058032111264765</v>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2165,7 +2165,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="n">
-        <v>0.007796587888151407</v>
+        <v>4.722822688485451e-10</v>
       </c>
       <c r="E45" t="n">
         <v>0.0006183696095831692</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2204,7 +2204,7 @@
         <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>0.008445791900157928</v>
+        <v>4.574583822858358e-09</v>
       </c>
       <c r="E46" t="n">
         <v>0.0002665057254489511</v>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2243,7 +2243,7 @@
         <v>46</v>
       </c>
       <c r="D47" t="n">
-        <v>0.005835218820720911</v>
+        <v>1.23777423866045e-08</v>
       </c>
       <c r="E47" t="n">
         <v>0.0004916456528007984</v>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2282,7 +2282,7 @@
         <v>47</v>
       </c>
       <c r="D48" t="n">
-        <v>0.007559213787317276</v>
+        <v>3.372230139575549e-08</v>
       </c>
       <c r="E48" t="n">
         <v>0.00258934567682445</v>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2321,7 +2321,7 @@
         <v>48</v>
       </c>
       <c r="D49" t="n">
-        <v>0.001360398135147989</v>
+        <v>8.769021953014544e-09</v>
       </c>
       <c r="E49" t="n">
         <v>0.0004141443932894617</v>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2360,7 +2360,7 @@
         <v>49</v>
       </c>
       <c r="D50" t="n">
-        <v>0.002500564092770219</v>
+        <v>7.891688369454641e-07</v>
       </c>
       <c r="E50" t="n">
         <v>0.0001309425570070744</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2399,7 +2399,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0006454649847000837</v>
+        <v>7.712633198764252e-09</v>
       </c>
       <c r="E51" t="n">
         <v>5.252392293186858e-05</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2438,7 +2438,7 @@
         <v>51</v>
       </c>
       <c r="D52" t="n">
-        <v>0.005647444631904364</v>
+        <v>1.437873464738004e-07</v>
       </c>
       <c r="E52" t="n">
         <v>0.001298257964663208</v>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2477,7 +2477,7 @@
         <v>52</v>
       </c>
       <c r="D53" t="n">
-        <v>0.002859800355508924</v>
+        <v>4.147040766344645e-10</v>
       </c>
       <c r="E53" t="n">
         <v>0.0001089099241653457</v>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2516,7 +2516,7 @@
         <v>53</v>
       </c>
       <c r="D54" t="n">
-        <v>0.00735112139955163</v>
+        <v>2.650283903449235e-08</v>
       </c>
       <c r="E54" t="n">
         <v>5.072171188658103e-05</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2555,7 +2555,7 @@
         <v>54</v>
       </c>
       <c r="D55" t="n">
-        <v>0.005312946625053883</v>
+        <v>1.094154489234e-10</v>
       </c>
       <c r="E55" t="n">
         <v>0.0001789297966752201</v>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2594,7 +2594,7 @@
         <v>55</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01186003163456917</v>
+        <v>3.956166061414024e-09</v>
       </c>
       <c r="E56" t="n">
         <v>0.0009154623257927597</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2633,7 +2633,7 @@
         <v>56</v>
       </c>
       <c r="D57" t="n">
-        <v>0.01405507326126099</v>
+        <v>8.597499601137315e-09</v>
       </c>
       <c r="E57" t="n">
         <v>0.01401383522897959</v>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2672,7 +2672,7 @@
         <v>57</v>
       </c>
       <c r="D58" t="n">
-        <v>0.01681397669017315</v>
+        <v>1.608593036550587e-09</v>
       </c>
       <c r="E58" t="n">
         <v>0.0003076891589444131</v>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2711,7 +2711,7 @@
         <v>58</v>
       </c>
       <c r="D59" t="n">
-        <v>0.003812636714428663</v>
+        <v>5.585369389216055e-10</v>
       </c>
       <c r="E59" t="n">
         <v>0.002174706431105733</v>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2750,7 +2750,7 @@
         <v>59</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01365460082888603</v>
+        <v>7.652982958461507e-08</v>
       </c>
       <c r="E60" t="n">
         <v>0.01140372455120087</v>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2789,7 +2789,7 @@
         <v>60</v>
       </c>
       <c r="D61" t="n">
-        <v>0.003615994937717915</v>
+        <v>1.868242982538959e-08</v>
       </c>
       <c r="E61" t="n">
         <v>4.762099342769943e-05</v>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2828,7 +2828,7 @@
         <v>61</v>
       </c>
       <c r="D62" t="n">
-        <v>0.01109090447425842</v>
+        <v>1.035417174222175e-08</v>
       </c>
       <c r="E62" t="n">
         <v>0.0009707089047878981</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -2867,7 +2867,7 @@
         <v>62</v>
       </c>
       <c r="D63" t="n">
-        <v>0.05207129940390587</v>
+        <v>5.865790519976599e-09</v>
       </c>
       <c r="E63" t="n">
         <v>0.001194949029013515</v>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -2906,7 +2906,7 @@
         <v>63</v>
       </c>
       <c r="D64" t="n">
-        <v>0.002772103995084763</v>
+        <v>5.304715000598037e-10</v>
       </c>
       <c r="E64" t="n">
         <v>0.0006246421253308654</v>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -2945,7 +2945,7 @@
         <v>64</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01203961204737425</v>
+        <v>1.202666410904385e-08</v>
       </c>
       <c r="E65" t="n">
         <v>0.01689281314611435</v>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -2984,7 +2984,7 @@
         <v>65</v>
       </c>
       <c r="D66" t="n">
-        <v>0.01778886839747429</v>
+        <v>1.922760795025624e-08</v>
       </c>
       <c r="E66" t="n">
         <v>0.001165312365628779</v>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>66</v>
       </c>
       <c r="D67" t="n">
-        <v>0.005970553494989872</v>
+        <v>2.481063132719896e-09</v>
       </c>
       <c r="E67" t="n">
         <v>0.0004225848242640495</v>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3062,7 +3062,7 @@
         <v>67</v>
       </c>
       <c r="D68" t="n">
-        <v>0.009484528563916683</v>
+        <v>1.717421049818313e-08</v>
       </c>
       <c r="E68" t="n">
         <v>0.005455792415887117</v>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3101,7 +3101,7 @@
         <v>68</v>
       </c>
       <c r="D69" t="n">
-        <v>0.003074830630794168</v>
+        <v>7.72561126183291e-09</v>
       </c>
       <c r="E69" t="n">
         <v>0.0002496117376722395</v>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3140,7 +3140,7 @@
         <v>69</v>
       </c>
       <c r="D70" t="n">
-        <v>0.21942338347435</v>
+        <v>2.058377290836688e-08</v>
       </c>
       <c r="E70" t="n">
         <v>7.322919555008411e-05</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3179,7 +3179,7 @@
         <v>70</v>
       </c>
       <c r="D71" t="n">
-        <v>0.001928826095536351</v>
+        <v>2.416927991077955e-08</v>
       </c>
       <c r="E71" t="n">
         <v>0.000190205333638005</v>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3218,7 +3218,7 @@
         <v>71</v>
       </c>
       <c r="D72" t="n">
-        <v>0.002161776646971703</v>
+        <v>1.24173453741605e-08</v>
       </c>
       <c r="E72" t="n">
         <v>0.0001499817735748366</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3257,7 +3257,7 @@
         <v>72</v>
       </c>
       <c r="D73" t="n">
-        <v>0.008232568390667439</v>
+        <v>4.392825303511927e-08</v>
       </c>
       <c r="E73" t="n">
         <v>0.000802000577095896</v>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3296,7 +3296,7 @@
         <v>73</v>
       </c>
       <c r="D74" t="n">
-        <v>0.007049314677715302</v>
+        <v>2.495102613409017e-08</v>
       </c>
       <c r="E74" t="n">
         <v>0.001145411166362464</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3335,7 +3335,7 @@
         <v>74</v>
       </c>
       <c r="D75" t="n">
-        <v>0.007741731125861406</v>
+        <v>6.893113635442205e-09</v>
       </c>
       <c r="E75" t="n">
         <v>0.001795198186300695</v>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3374,7 +3374,7 @@
         <v>75</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0008336743921972811</v>
+        <v>3.717601504416024e-10</v>
       </c>
       <c r="E76" t="n">
         <v>0.0003875003312714398</v>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -3413,7 +3413,7 @@
         <v>76</v>
       </c>
       <c r="D77" t="n">
-        <v>0.07370471954345703</v>
+        <v>7.17414072592959e-10</v>
       </c>
       <c r="E77" t="n">
         <v>0.0005074219079688191</v>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -3452,7 +3452,7 @@
         <v>77</v>
       </c>
       <c r="D78" t="n">
-        <v>0.01225476618856192</v>
+        <v>9.228788400150734e-08</v>
       </c>
       <c r="E78" t="n">
         <v>0.003471280448138714</v>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3491,7 +3491,7 @@
         <v>78</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0976417139172554</v>
+        <v>6.557500320525378e-09</v>
       </c>
       <c r="E79" t="n">
         <v>0.005063594784587622</v>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -3530,7 +3530,7 @@
         <v>79</v>
       </c>
       <c r="D80" t="n">
-        <v>0.00812492985278368</v>
+        <v>3.095797396213129e-08</v>
       </c>
       <c r="E80" t="n">
         <v>0.01005510985851288</v>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -3569,7 +3569,7 @@
         <v>80</v>
       </c>
       <c r="D81" t="n">
-        <v>0.01082122884690762</v>
+        <v>3.083165722728154e-08</v>
       </c>
       <c r="E81" t="n">
         <v>0.0002068608591798693</v>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -3608,7 +3608,7 @@
         <v>81</v>
       </c>
       <c r="D82" t="n">
-        <v>0.002960169222205877</v>
+        <v>6.573865150155678e-12</v>
       </c>
       <c r="E82" t="n">
         <v>0.004645379725843668</v>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -3647,7 +3647,7 @@
         <v>82</v>
       </c>
       <c r="D83" t="n">
-        <v>0.002484711119905114</v>
+        <v>9.574696591130305e-09</v>
       </c>
       <c r="E83" t="n">
         <v>0.000560036045499146</v>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -3686,7 +3686,7 @@
         <v>83</v>
       </c>
       <c r="D84" t="n">
-        <v>0.003644909942522645</v>
+        <v>3.032690898407964e-08</v>
       </c>
       <c r="E84" t="n">
         <v>0.004643453285098076</v>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -3725,7 +3725,7 @@
         <v>84</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0005992703372612596</v>
+        <v>5.362045474299748e-09</v>
       </c>
       <c r="E85" t="n">
         <v>0.002145350212231278</v>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -3764,7 +3764,7 @@
         <v>85</v>
       </c>
       <c r="D86" t="n">
-        <v>0.03091642819344997</v>
+        <v>2.475896643261422e-08</v>
       </c>
       <c r="E86" t="n">
         <v>0.003023828146979213</v>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -3803,7 +3803,7 @@
         <v>86</v>
       </c>
       <c r="D87" t="n">
-        <v>0.09812071919441223</v>
+        <v>6.291950516157385e-09</v>
       </c>
       <c r="E87" t="n">
         <v>0.0002323790395166725</v>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -3842,7 +3842,7 @@
         <v>87</v>
       </c>
       <c r="D88" t="n">
-        <v>0.003818855155259371</v>
+        <v>2.531904130798068e-10</v>
       </c>
       <c r="E88" t="n">
         <v>4.237500252202153e-05</v>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -3881,7 +3881,7 @@
         <v>88</v>
       </c>
       <c r="D89" t="n">
-        <v>0.002501416951417923</v>
+        <v>4.457163083060323e-09</v>
       </c>
       <c r="E89" t="n">
         <v>0.0002216006250819191</v>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -3920,7 +3920,7 @@
         <v>89</v>
       </c>
       <c r="D90" t="n">
-        <v>0.02391085959970951</v>
+        <v>3.879661925054734e-09</v>
       </c>
       <c r="E90" t="n">
         <v>0.002298634732142091</v>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -3959,7 +3959,7 @@
         <v>90</v>
       </c>
       <c r="D91" t="n">
-        <v>0.02088756114244461</v>
+        <v>7.380186239913655e-09</v>
       </c>
       <c r="E91" t="n">
         <v>0.0004590059688780457</v>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -3998,7 +3998,7 @@
         <v>91</v>
       </c>
       <c r="D92" t="n">
-        <v>0.02027969248592854</v>
+        <v>2.353264072496586e-08</v>
       </c>
       <c r="E92" t="n">
         <v>3.945146454498172e-05</v>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4037,7 +4037,7 @@
         <v>92</v>
       </c>
       <c r="D93" t="n">
-        <v>0.003095444058999419</v>
+        <v>2.179521629841474e-08</v>
       </c>
       <c r="E93" t="n">
         <v>0.0001114998231059872</v>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4076,7 +4076,7 @@
         <v>93</v>
       </c>
       <c r="D94" t="n">
-        <v>0.006750923581421375</v>
+        <v>6.329150981088105e-09</v>
       </c>
       <c r="E94" t="n">
         <v>0.01529088150709867</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4115,7 +4115,7 @@
         <v>94</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01036609802395105</v>
+        <v>1.258014936666996e-08</v>
       </c>
       <c r="E95" t="n">
         <v>0.005401738919317722</v>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -4154,7 +4154,7 @@
         <v>95</v>
       </c>
       <c r="D96" t="n">
-        <v>0.006558540277183056</v>
+        <v>4.324707703062813e-08</v>
       </c>
       <c r="E96" t="n">
         <v>0.0009295271011069417</v>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -4193,7 +4193,7 @@
         <v>96</v>
       </c>
       <c r="D97" t="n">
-        <v>0.07818332314491272</v>
+        <v>1.586472953007956e-09</v>
       </c>
       <c r="E97" t="n">
         <v>5.780946139566367e-06</v>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -4232,7 +4232,7 @@
         <v>97</v>
       </c>
       <c r="D98" t="n">
-        <v>0.002407285384833813</v>
+        <v>8.746344093424341e-09</v>
       </c>
       <c r="E98" t="n">
         <v>0.0002650106616783887</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -4271,7 +4271,7 @@
         <v>98</v>
       </c>
       <c r="D99" t="n">
-        <v>0.006439089775085449</v>
+        <v>4.044630186328391e-10</v>
       </c>
       <c r="E99" t="n">
         <v>7.22351687727496e-05</v>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -4310,7 +4310,7 @@
         <v>99</v>
       </c>
       <c r="D100" t="n">
-        <v>0.005747491493821144</v>
+        <v>6.690827092370455e-08</v>
       </c>
       <c r="E100" t="n">
         <v>0.0003812762442976236</v>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -4349,7 +4349,7 @@
         <v>100</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1056733280420303</v>
+        <v>3.812167292949198e-08</v>
       </c>
       <c r="E101" t="n">
         <v>0.0002440889657009393</v>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
